--- a/src/demo/demo_jobs copy.xlsx
+++ b/src/demo/demo_jobs copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcheam/Desktop/Projects/myProjects/automatic-roster/src/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32478DAF-69FC-3241-AB4A-551E30A65F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D47D0D8-33B7-6047-AD53-61D449C5A962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Jobs</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>COORDINATOR (B)</t>
-  </si>
-  <si>
-    <t>LIVESTREAM #1 (B)</t>
   </si>
   <si>
     <t>SOUND #1 (B)</t>
@@ -410,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -474,14 +471,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
